--- a/仕様書/ゲームフロー手書き.xlsx
+++ b/仕様書/ゲームフロー手書き.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄太\Documents\CaseStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄太\Desktop\CaseStady_Image\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>表示物</t>
     <rPh sb="0" eb="2">
@@ -373,13 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無し。</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プログラム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -565,22 +558,6 @@
     <t>一枚ペラでOK。</t>
     <rPh sb="0" eb="2">
       <t>イチマイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>点滅させてください。＋αプレイヤーがボタンを押したら、高速点滅</t>
-    <rPh sb="0" eb="2">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テンメツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -675,54 +652,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無し。プレイヤーがボタンを押したら表示(中央)。</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>チュウオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無し。メニュー画面の背景の中に表示。上から、げーむ、おぷしょん、あそびかた。</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーにメニューを選択させるもの。</t>
     <rPh sb="11" eb="13">
       <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>げーむ、おぷしょん、あそびかたの三種類。</t>
-    <rPh sb="16" eb="19">
-      <t>サンシュルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -748,53 +680,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーが選択したところを表示。</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーが選択したところを分からせるためのもの。</t>
     <rPh sb="6" eb="8">
       <t>センタク</t>
     </rPh>
     <rPh sb="14" eb="15">
       <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの操作により移動。＋α決定ボタンを押したら高速点滅。移動の際に慣性をつける。</t>
-    <rPh sb="6" eb="8">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -822,19 +713,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面中央固定。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -850,22 +728,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面中央部固定。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>獲得した宝物の画像。</t>
     <rPh sb="0" eb="2">
       <t>カクトク</t>
@@ -883,22 +745,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム中に表示したものと同じものを表示。</t>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敗者アニメーション</t>
     <rPh sb="0" eb="2">
       <t>ハイシャ</t>
@@ -907,19 +753,6 @@
   </si>
   <si>
     <t>なるべく大きく！ゲーム参照</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>擬似３Dでの勝者よりも奥。</t>
-    <rPh sb="0" eb="2">
-      <t>ギジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウシャ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -993,13 +826,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WIN,LOSE（文字）</t>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一枚ペラでOK。＋α縁取りとレイヤーを分ける。</t>
     <rPh sb="0" eb="2">
       <t>イチマイ</t>
@@ -1026,51 +852,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコア表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面外上部から落下。指定位置で停止</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ソト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ラッカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>宝物（仮）</t>
     <rPh sb="0" eb="2">
       <t>タカラモノ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定</t>
-    <rPh sb="0" eb="2">
-      <t>コテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1131,6 +918,575 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。フェードが終わる前に書いてある予定。フェードの時間は1sec程度。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。メニュー画面の背景の中に表示。上から、げーむ、おぷしょん、あそびかた。移動はメニュー画面表示と同様。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの操作により移動。ゆっくり点滅する。＋α決定ボタンを押したら高速点滅。移動の際に慣性をつける。点滅をsin*定数にしてなるべくはっきり写っている時間を増やしたものにする。点滅時間は0.8sec。</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点滅させてください。＋αプレイヤーがボタンを押したら、高速点滅。点滅時間は１ループ0.6sec、高速点滅時間は１ループ0.2sec。</t>
+    <rPh sb="0" eb="2">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが選択したところを表示。入力により上下移動。ゆっくり点滅させる。プレイヤー入力後、0.8secで次のシーンへ。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。プレイヤーがボタンを押したら画面右端から表示。中央に移動する。プレイヤーが入力したら画面左側画面外に移動。移動開始時間はカーソルの処理が終わり次第(0.8sec)。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミギハシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGでのフェードが終わり次第(1sec)、画面外上部から落下。指定位置で停止</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げーむ、おぷしょん、あそびかたの三種類。＋α輪郭と文字を別々に。</t>
+    <rPh sb="16" eb="19">
+      <t>サンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中に表示したものと同じものを表示。？アニメーション。</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央固定。シーンの最初から表示。アニメーション時間は、アニメーションの枚数による。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央部固定。シーンの最初から表示。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擬似３Dでの勝者よりも奥。シーンの最初から表示。アニメーション時間は、アニメーションの枚数による。</t>
+    <rPh sb="0" eb="2">
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIN,LOSE（文字）(仮)</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントにお任せ。</t>
+    <rPh sb="6" eb="7">
+      <t>マカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示文字</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細かいスコアの表示。表示のスコアが沢山ある場合はプレイヤー入力でスクロールさせる(かも)。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示することを簡単にするものが必要。＋αスクロールできるようにしておいてほしい。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、カタカナの五十音表。</t>
+    <rPh sb="10" eb="13">
+      <t>ゴジュウオン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定。</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定。勝者アニメーションを二回ループさせたら表示。画面下から延びるように上方向移動。プレイヤー入力で縮み、勝者アニメーションなどが見えるようになる。伸び縮み時間は0.2sec。</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>チヂミ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もういちど、キャラ選択画面へ、ステージ選択画面へ</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。リザルトメニュー画面の背景の中に表示。上からもういちど、キャラ選択画面へ、ステージ選択画面へ。移動はリザルトメニュー画面表示と同様。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もういちど、キャラ選択画面へ、ステージ選択画面への三種類。＋α輪郭と文字を別々に。</t>
+    <rPh sb="25" eb="28">
+      <t>サンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトメニュー画面背景</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央表示。スコア表示にて、すべてのプレイヤーが、スコアを見終わったら表示。次のシーンを表示するまで表示。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ミオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ペラでOK。＋α輪郭と文字を別々に。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1332,7 +1688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,16 +1722,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1430,6 +1789,66 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>372533</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>541867</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11954933" y="508000"/>
+          <a:ext cx="3217334" cy="897467"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1472,6 +1891,1509 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>486103</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410903" y="10150366"/>
+          <a:ext cx="9130863" cy="1521898"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18159</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>517927</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 端子 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12210159" y="948735"/>
+          <a:ext cx="1109368" cy="319221"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期起動時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9387840" y="861060"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>189799</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12991399" y="2117134"/>
+          <a:ext cx="826202" cy="219666"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>593222</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12785222" y="3020878"/>
+          <a:ext cx="1252512" cy="298055"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル落下歌詞</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>553371</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>65691</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12745371" y="6211532"/>
+          <a:ext cx="1341120" cy="324740"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次シーン移行画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>301646</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>275896</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>26282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 端子 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8836046" y="10736586"/>
+          <a:ext cx="1803050" cy="353936"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームシーンまで移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>159755</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>446689</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>39418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 端子 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11742155" y="10748409"/>
+          <a:ext cx="2115734" cy="355249"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おぷしょん画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>329498</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>39416</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 端子 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14959898" y="10767061"/>
+          <a:ext cx="1880301" cy="336595"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>遊びかた画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11170920" y="1348740"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9121140" y="2026920"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="3726180"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>191668</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 判断 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12383668" y="5110889"/>
+          <a:ext cx="2035065" cy="435361"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 判断 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11156732" y="9338442"/>
+          <a:ext cx="3297620" cy="424093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択シーンによって分岐</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>572843</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12764843" y="1267956"/>
+          <a:ext cx="639657" cy="849178"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>278</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13404500" y="2336800"/>
+          <a:ext cx="6978" cy="684078"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>599601</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30889</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13401201" y="4148666"/>
+          <a:ext cx="10278" cy="962223"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>599601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4731</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115532</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401201" y="5546250"/>
+          <a:ext cx="14730" cy="665282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12802650" y="9762535"/>
+          <a:ext cx="5520" cy="985874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590944</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9734944" y="9552065"/>
+          <a:ext cx="1421788" cy="1184521"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>53076</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14454352" y="9552065"/>
+          <a:ext cx="1448324" cy="1214996"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="853054" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8547538" y="10252316"/>
+          <a:ext cx="853054" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>他シーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="853054" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="558799"/>
+          <a:ext cx="853054" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>他シーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238292</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="フローチャート: 端子 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13649492" y="931334"/>
+          <a:ext cx="1234907" cy="363715"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リザルトシーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>246146</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13404500" y="1295049"/>
+          <a:ext cx="862446" cy="822085"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>593223</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16935</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="フローチャート: 処理 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12785223" y="3850611"/>
+          <a:ext cx="1252512" cy="298055"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PUSHENTER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>278</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411478" y="3318933"/>
+          <a:ext cx="1" cy="531678"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3942</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4731</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13415142" y="6536272"/>
+          <a:ext cx="789" cy="863303"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3439,18 +5361,78 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>512380</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="角丸四角形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8158655" y="10352690"/>
+          <a:ext cx="8671035" cy="1550276"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3473,7 +5455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601980" y="144780"/>
+          <a:off x="601980" y="160020"/>
           <a:ext cx="7543800" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3481,6 +5463,1673 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>52026</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>551794</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 端子 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12138923" y="768306"/>
+          <a:ext cx="1104112" cy="322142"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームシーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9309012" y="876826"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138998</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>486104</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11621550" y="1963857"/>
+          <a:ext cx="2160140" cy="453521"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各キャラクターアニメーション開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>186821</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>420414</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12273718" y="3302614"/>
+          <a:ext cx="837937" cy="270904"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スコア表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472967</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12199096" y="5518194"/>
+          <a:ext cx="965112" cy="341323"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スコアを消す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>553371</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>65691</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12035923" y="8382789"/>
+          <a:ext cx="1325354" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次シーン移行画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>551267</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525517</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>39419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 端子 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8407750" y="10951522"/>
+          <a:ext cx="1787284" cy="360242"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームスタートまで移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>186031</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>472964</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>39418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 端子 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10459893" y="10950208"/>
+          <a:ext cx="2099968" cy="361555"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクター選択画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>145568</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>24963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>197068</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>26278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 端子 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12836809" y="10955722"/>
+          <a:ext cx="1864535" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ選択画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11170920" y="1348740"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9047568" y="2064757"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9255672" y="3795548"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174735</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 判断 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448597" y="4317650"/>
+          <a:ext cx="2019300" cy="438281"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>264597</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>354724</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 判断 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11142804" y="6779173"/>
+          <a:ext cx="3111851" cy="459827"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>全員がスコアを消した</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 判断 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11062139" y="9511863"/>
+          <a:ext cx="3271344" cy="433552"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択シーンによって分岐</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>604082</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10379</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12690979" y="1090448"/>
+          <a:ext cx="10641" cy="873409"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1446</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10379</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12692687" y="2417378"/>
+          <a:ext cx="8933" cy="885236"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>580040</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>186821</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11458247" y="3438066"/>
+          <a:ext cx="815471" cy="879584"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>580040</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112199</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11458247" y="4755931"/>
+          <a:ext cx="740849" cy="932925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>594755</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7489</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12681652" y="5859517"/>
+          <a:ext cx="17078" cy="919656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>249617</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>455882</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="フローチャート: 判断 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12940858" y="4335518"/>
+          <a:ext cx="2019300" cy="438281"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472967</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50577</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="43" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13164208" y="4773799"/>
+          <a:ext cx="786300" cy="915057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>420414</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50577</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="0"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13111655" y="3438066"/>
+          <a:ext cx="838853" cy="897452"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7359</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7489</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12698600" y="7239000"/>
+          <a:ext cx="130" cy="1143789"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7359</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12697811" y="8710449"/>
+          <a:ext cx="789" cy="801414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11509877" y="9945415"/>
+          <a:ext cx="1187934" cy="1004793"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9301392" y="9728639"/>
+          <a:ext cx="1760747" cy="1222883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>473491</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>24963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12697811" y="9945415"/>
+          <a:ext cx="1071266" cy="1010307"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="853054" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8473966" y="10444655"/>
+          <a:ext cx="853054" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>他シーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>210207</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="フローチャート: 端子 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15012451" y="10937328"/>
+          <a:ext cx="1515066" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57018</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14333483" y="9728639"/>
+          <a:ext cx="1436501" cy="1208689"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3751,8 +7400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3765,10 +7414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X32"/>
+  <dimension ref="B2:X34"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:I12"/>
+      <selection activeCell="R13" sqref="R13:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3795,19 +7444,19 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -3818,35 +7467,35 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -3961,31 +7610,31 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -4092,39 +7741,39 @@
     </row>
     <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="4" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -4231,39 +7880,39 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -4370,39 +8019,39 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="3" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -4507,154 +8156,204 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
+    <row r="28" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="13"/>
+      <c r="X28" s="12"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="12"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="12"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="12"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="12"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="R28:U32"/>
-    <mergeCell ref="V28:X32"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="F28:I32"/>
-    <mergeCell ref="J28:M32"/>
-    <mergeCell ref="N28:Q32"/>
+    <mergeCell ref="R28:U34"/>
+    <mergeCell ref="V28:X34"/>
+    <mergeCell ref="N28:Q34"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="D28:E34"/>
+    <mergeCell ref="F28:I34"/>
+    <mergeCell ref="J28:M34"/>
     <mergeCell ref="R23:U27"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="V3:X7"/>
@@ -4708,8 +8407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView topLeftCell="A61" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="S98" sqref="S98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4735,54 +8434,54 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="15" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="15"/>
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -4793,10 +8492,10 @@
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -4807,10 +8506,10 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -4821,10 +8520,10 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -4840,10 +8539,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
@@ -4860,8 +8559,8 @@
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -4874,8 +8573,8 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -4888,8 +8587,8 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -4902,8 +8601,8 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -4918,10 +8617,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
@@ -4938,8 +8637,8 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -4952,8 +8651,8 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -4966,8 +8665,8 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -4980,8 +8679,8 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4992,18 +8691,18 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -5061,8 +8760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A38" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="Z74" sqref="Z74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5075,10 +8774,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X32"/>
+  <dimension ref="B2:X42"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView topLeftCell="A8" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5089,7 +8788,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
@@ -5105,58 +8804,58 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -5263,39 +8962,39 @@
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -5402,39 +9101,39 @@
     </row>
     <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -5541,39 +9240,39 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -5680,39 +9379,39 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="J23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -5726,14 +9425,14 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -5751,14 +9450,14 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -5776,14 +9475,14 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -5801,14 +9500,14 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -5827,31 +9526,31 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -5956,8 +9655,286 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="63">
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="B3:C7"/>
     <mergeCell ref="D3:E7"/>
@@ -6007,6 +9984,20 @@
     <mergeCell ref="J28:M32"/>
     <mergeCell ref="N28:Q32"/>
     <mergeCell ref="R28:U32"/>
+    <mergeCell ref="R33:U37"/>
+    <mergeCell ref="V33:X37"/>
+    <mergeCell ref="B38:C42"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="F38:I42"/>
+    <mergeCell ref="J38:M42"/>
+    <mergeCell ref="N38:Q42"/>
+    <mergeCell ref="R38:U42"/>
+    <mergeCell ref="V38:X42"/>
+    <mergeCell ref="B33:C37"/>
+    <mergeCell ref="D33:E37"/>
+    <mergeCell ref="F33:I37"/>
+    <mergeCell ref="J33:M37"/>
+    <mergeCell ref="N33:Q37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
